--- a/pali-class/vocab/vocab-class24.xlsx
+++ b/pali-class/vocab/vocab-class24.xlsx
@@ -316,6 +316,9 @@
     <t>dūra 1</t>
   </si>
   <si>
+    <t>purāṇa 1</t>
+  </si>
+  <si>
     <t>sacca 1</t>
   </si>
   <si>
@@ -328,15 +331,9 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
-    <t>purāṇa 1</t>
-  </si>
-  <si>
     <t>anavajja 1</t>
   </si>
   <si>
@@ -664,12 +661,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2998,6 +2995,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -3043,12 +3043,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>bhojanīya</t>
   </si>
   <si>
@@ -3811,6 +3811,9 @@
     <t>far away (from); distant (from)</t>
   </si>
   <si>
+    <t>previous; old; ancient</t>
+  </si>
+  <si>
     <t>true; correct; accurate; honest; reliable</t>
   </si>
   <si>
@@ -3823,15 +3826,9 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
-    <t>previous; old; ancient</t>
-  </si>
-  <si>
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
@@ -4159,12 +4156,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -6469,6 +6466,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6511,10 +6511,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>cooked food; soft food; lit. to be eaten</t>
@@ -10062,13 +10062,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C149" t="s">
         <v>1317</v>
       </c>
       <c r="D149" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="E149" t="s">
         <v>2375</v>
@@ -10079,13 +10079,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C150" t="s">
         <v>1318</v>
       </c>
       <c r="D150" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="E150" t="s">
         <v>2375</v>
@@ -10266,7 +10266,7 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C161" t="s">
         <v>1329</v>
@@ -10283,7 +10283,7 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C162" t="s">
         <v>1330</v>
@@ -10827,13 +10827,13 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C194" t="s">
         <v>1362</v>
       </c>
       <c r="D194" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="E194" t="s">
         <v>2375</v>
@@ -10867,7 +10867,7 @@
         <v>1364</v>
       </c>
       <c r="D196" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E196" t="s">
         <v>2375</v>
@@ -10884,7 +10884,7 @@
         <v>1365</v>
       </c>
       <c r="D197" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E197" t="s">
         <v>2375</v>
@@ -10901,7 +10901,7 @@
         <v>1366</v>
       </c>
       <c r="D198" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="E198" t="s">
         <v>2375</v>
@@ -10912,13 +10912,13 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C199" t="s">
         <v>1367</v>
       </c>
       <c r="D199" t="s">
-        <v>2319</v>
+        <v>1156</v>
       </c>
       <c r="E199" t="s">
         <v>2375</v>
@@ -10980,13 +10980,13 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C203" t="s">
         <v>1371</v>
       </c>
       <c r="D203" t="s">
-        <v>1156</v>
+        <v>2320</v>
       </c>
       <c r="E203" t="s">
         <v>2375</v>
@@ -11054,7 +11054,7 @@
         <v>1375</v>
       </c>
       <c r="D207" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="E207" t="s">
         <v>2375</v>
@@ -11105,7 +11105,7 @@
         <v>1378</v>
       </c>
       <c r="D210" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E210" t="s">
         <v>2375</v>
@@ -11116,16 +11116,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="C211" t="s">
         <v>1379</v>
       </c>
       <c r="D211" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E211" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -11269,13 +11269,13 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C220" t="s">
         <v>1388</v>
       </c>
       <c r="D220" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E220" t="s">
         <v>2376</v>
@@ -11377,7 +11377,7 @@
         <v>1394</v>
       </c>
       <c r="D226" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="E226" t="s">
         <v>2376</v>
@@ -11411,7 +11411,7 @@
         <v>1396</v>
       </c>
       <c r="D228" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E228" t="s">
         <v>2376</v>
@@ -11428,7 +11428,7 @@
         <v>1397</v>
       </c>
       <c r="D229" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="E229" t="s">
         <v>2376</v>
@@ -11445,7 +11445,7 @@
         <v>1398</v>
       </c>
       <c r="D230" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="E230" t="s">
         <v>2376</v>
@@ -11462,7 +11462,7 @@
         <v>1399</v>
       </c>
       <c r="D231" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E231" t="s">
         <v>2376</v>
@@ -11479,7 +11479,7 @@
         <v>1400</v>
       </c>
       <c r="D232" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="E232" t="s">
         <v>2376</v>
@@ -11490,16 +11490,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C233" t="s">
         <v>1401</v>
       </c>
       <c r="D233" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="E233" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -11847,13 +11847,13 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C254" t="s">
         <v>1422</v>
       </c>
       <c r="D254" t="s">
-        <v>2331</v>
+        <v>1156</v>
       </c>
       <c r="E254" t="s">
         <v>2377</v>
@@ -12190,7 +12190,7 @@
         <v>1156</v>
       </c>
       <c r="C274" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="D274" t="s">
         <v>1156</v>
@@ -12207,7 +12207,7 @@
         <v>1156</v>
       </c>
       <c r="C275" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="D275" t="s">
         <v>1156</v>
@@ -12663,13 +12663,13 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C302" t="s">
         <v>1469</v>
       </c>
       <c r="D302" t="s">
-        <v>1156</v>
+        <v>2312</v>
       </c>
       <c r="E302" t="s">
         <v>2377</v>
@@ -12697,16 +12697,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C304" t="s">
         <v>1471</v>
       </c>
       <c r="D304" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="E304" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -12731,13 +12731,13 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="C306" t="s">
         <v>1473</v>
       </c>
       <c r="D306" t="s">
-        <v>2315</v>
+        <v>2332</v>
       </c>
       <c r="E306" t="s">
         <v>2378</v>
@@ -12918,13 +12918,13 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C317" t="s">
         <v>1484</v>
       </c>
       <c r="D317" t="s">
-        <v>2332</v>
+        <v>1161</v>
       </c>
       <c r="E317" t="s">
         <v>2378</v>
@@ -13088,13 +13088,13 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C327" t="s">
         <v>1494</v>
       </c>
       <c r="D327" t="s">
-        <v>1161</v>
+        <v>2331</v>
       </c>
       <c r="E327" t="s">
         <v>2378</v>
@@ -13105,13 +13105,13 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C328" t="s">
         <v>1495</v>
       </c>
       <c r="D328" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="E328" t="s">
         <v>2378</v>
@@ -13122,13 +13122,13 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C329" t="s">
         <v>1496</v>
       </c>
       <c r="D329" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="E329" t="s">
         <v>2378</v>
@@ -13513,13 +13513,13 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C352" t="s">
         <v>1519</v>
       </c>
       <c r="D352" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="E352" t="s">
         <v>2378</v>
@@ -13530,13 +13530,13 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C353" t="s">
         <v>1520</v>
       </c>
       <c r="D353" t="s">
-        <v>2335</v>
+        <v>1163</v>
       </c>
       <c r="E353" t="s">
         <v>2378</v>
@@ -13547,13 +13547,13 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C354" t="s">
         <v>1521</v>
       </c>
       <c r="D354" t="s">
-        <v>1163</v>
+        <v>2336</v>
       </c>
       <c r="E354" t="s">
         <v>2378</v>
@@ -13564,16 +13564,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="C355" t="s">
         <v>1522</v>
       </c>
       <c r="D355" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E355" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -13587,7 +13587,7 @@
         <v>1523</v>
       </c>
       <c r="D356" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="E356" t="s">
         <v>2379</v>
@@ -13689,7 +13689,7 @@
         <v>1529</v>
       </c>
       <c r="D362" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="E362" t="s">
         <v>2379</v>
@@ -13706,10 +13706,10 @@
         <v>1530</v>
       </c>
       <c r="D363" t="s">
-        <v>2339</v>
+        <v>2314</v>
       </c>
       <c r="E363" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -15998,7 +15998,7 @@
         <v>1154</v>
       </c>
       <c r="C498" t="s">
-        <v>1665</v>
+        <v>1608</v>
       </c>
       <c r="D498" t="s">
         <v>2314</v>
@@ -16015,7 +16015,7 @@
         <v>1154</v>
       </c>
       <c r="C499" t="s">
-        <v>1609</v>
+        <v>1665</v>
       </c>
       <c r="D499" t="s">
         <v>2314</v>
@@ -16950,7 +16950,7 @@
         <v>1154</v>
       </c>
       <c r="C554" t="s">
-        <v>1720</v>
+        <v>1568</v>
       </c>
       <c r="D554" t="s">
         <v>2314</v>
@@ -16967,7 +16967,7 @@
         <v>1154</v>
       </c>
       <c r="C555" t="s">
-        <v>1569</v>
+        <v>1720</v>
       </c>
       <c r="D555" t="s">
         <v>2314</v>
@@ -17191,7 +17191,7 @@
         <v>1733</v>
       </c>
       <c r="D568" t="s">
-        <v>2314</v>
+        <v>2340</v>
       </c>
       <c r="E568" t="s">
         <v>2380</v>
@@ -17225,10 +17225,10 @@
         <v>1735</v>
       </c>
       <c r="D570" t="s">
-        <v>2340</v>
+        <v>2314</v>
       </c>
       <c r="E570" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -17270,13 +17270,13 @@
         <v>576</v>
       </c>
       <c r="B573" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C573" t="s">
         <v>1738</v>
       </c>
       <c r="D573" t="s">
-        <v>2314</v>
+        <v>2331</v>
       </c>
       <c r="E573" t="s">
         <v>2381</v>
@@ -17559,7 +17559,7 @@
         <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C590" t="s">
         <v>1755</v>
@@ -17576,7 +17576,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C591" t="s">
         <v>1756</v>
@@ -18443,7 +18443,7 @@
         <v>645</v>
       </c>
       <c r="B642" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C642" t="s">
         <v>1807</v>
@@ -18460,7 +18460,7 @@
         <v>646</v>
       </c>
       <c r="B643" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C643" t="s">
         <v>1808</v>
@@ -18500,7 +18500,7 @@
         <v>1810</v>
       </c>
       <c r="D645" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="E645" t="s">
         <v>2381</v>
@@ -18653,7 +18653,7 @@
         <v>1819</v>
       </c>
       <c r="D654" t="s">
-        <v>2334</v>
+        <v>2341</v>
       </c>
       <c r="E654" t="s">
         <v>2381</v>
@@ -18664,7 +18664,7 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C655" t="s">
         <v>1820</v>
@@ -18681,13 +18681,13 @@
         <v>659</v>
       </c>
       <c r="B656" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C656" t="s">
         <v>1821</v>
       </c>
       <c r="D656" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="E656" t="s">
         <v>2381</v>
@@ -18704,7 +18704,7 @@
         <v>1822</v>
       </c>
       <c r="D657" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="E657" t="s">
         <v>2381</v>
@@ -18749,7 +18749,7 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C660" t="s">
         <v>1825</v>
@@ -18766,7 +18766,7 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C661" t="s">
         <v>1826</v>
@@ -18939,7 +18939,7 @@
         <v>1159</v>
       </c>
       <c r="C671" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="D671" t="s">
         <v>2343</v>
@@ -18956,7 +18956,7 @@
         <v>1159</v>
       </c>
       <c r="C672" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="D672" t="s">
         <v>2343</v>
@@ -18970,16 +18970,16 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C673" t="s">
         <v>1837</v>
       </c>
       <c r="D673" t="s">
-        <v>2343</v>
+        <v>2314</v>
       </c>
       <c r="E673" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -19004,13 +19004,13 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C675" t="s">
         <v>1839</v>
       </c>
       <c r="D675" t="s">
-        <v>2314</v>
+        <v>2331</v>
       </c>
       <c r="E675" t="s">
         <v>2382</v>
@@ -19299,7 +19299,7 @@
         <v>1856</v>
       </c>
       <c r="D692" t="s">
-        <v>2331</v>
+        <v>2344</v>
       </c>
       <c r="E692" t="s">
         <v>2382</v>
@@ -19344,7 +19344,7 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C695" t="s">
         <v>1859</v>
@@ -19361,7 +19361,7 @@
         <v>699</v>
       </c>
       <c r="B696" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C696" t="s">
         <v>1860</v>
@@ -19412,13 +19412,13 @@
         <v>702</v>
       </c>
       <c r="B699" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C699" t="s">
         <v>1863</v>
       </c>
       <c r="D699" t="s">
-        <v>2344</v>
+        <v>2333</v>
       </c>
       <c r="E699" t="s">
         <v>2382</v>
@@ -19435,7 +19435,7 @@
         <v>1864</v>
       </c>
       <c r="D700" t="s">
-        <v>2333</v>
+        <v>2345</v>
       </c>
       <c r="E700" t="s">
         <v>2382</v>
@@ -19463,13 +19463,13 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C702" t="s">
         <v>1866</v>
       </c>
       <c r="D702" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="E702" t="s">
         <v>2382</v>
@@ -19497,7 +19497,7 @@
         <v>707</v>
       </c>
       <c r="B704" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C704" t="s">
         <v>1868</v>
@@ -19531,13 +19531,13 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C706" t="s">
         <v>1870</v>
       </c>
       <c r="D706" t="s">
-        <v>2346</v>
+        <v>2335</v>
       </c>
       <c r="E706" t="s">
         <v>2382</v>
@@ -19684,13 +19684,13 @@
         <v>718</v>
       </c>
       <c r="B715" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C715" t="s">
         <v>1879</v>
       </c>
       <c r="D715" t="s">
-        <v>2335</v>
+        <v>2347</v>
       </c>
       <c r="E715" t="s">
         <v>2382</v>
@@ -19922,13 +19922,13 @@
         <v>732</v>
       </c>
       <c r="B729" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C729" t="s">
         <v>1893</v>
       </c>
       <c r="D729" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="E729" t="s">
         <v>2382</v>
@@ -19939,7 +19939,7 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C730" t="s">
         <v>1894</v>
@@ -19956,7 +19956,7 @@
         <v>734</v>
       </c>
       <c r="B731" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C731" t="s">
         <v>1895</v>
@@ -19979,7 +19979,7 @@
         <v>1896</v>
       </c>
       <c r="D732" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="E732" t="s">
         <v>2382</v>
@@ -20024,13 +20024,13 @@
         <v>738</v>
       </c>
       <c r="B735" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C735" t="s">
         <v>1899</v>
       </c>
       <c r="D735" t="s">
-        <v>2342</v>
+        <v>2349</v>
       </c>
       <c r="E735" t="s">
         <v>2382</v>
@@ -20115,7 +20115,7 @@
         <v>1904</v>
       </c>
       <c r="D740" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="E740" t="s">
         <v>2382</v>
@@ -20143,16 +20143,16 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C742" t="s">
         <v>1906</v>
       </c>
       <c r="D742" t="s">
-        <v>2350</v>
+        <v>2314</v>
       </c>
       <c r="E742" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -20296,13 +20296,13 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C751" t="s">
         <v>1915</v>
       </c>
       <c r="D751" t="s">
-        <v>2314</v>
+        <v>2351</v>
       </c>
       <c r="E751" t="s">
         <v>2383</v>
@@ -20500,13 +20500,13 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="C763" t="s">
         <v>1927</v>
       </c>
       <c r="D763" t="s">
-        <v>2351</v>
+        <v>2331</v>
       </c>
       <c r="E763" t="s">
         <v>2383</v>
@@ -20523,7 +20523,7 @@
         <v>1928</v>
       </c>
       <c r="D764" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="E764" t="s">
         <v>2383</v>
@@ -20534,13 +20534,13 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C765" t="s">
         <v>1929</v>
       </c>
       <c r="D765" t="s">
-        <v>2334</v>
+        <v>1156</v>
       </c>
       <c r="E765" t="s">
         <v>2383</v>
@@ -20653,13 +20653,13 @@
         <v>775</v>
       </c>
       <c r="B772" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="C772" t="s">
         <v>1936</v>
       </c>
       <c r="D772" t="s">
-        <v>1156</v>
+        <v>2352</v>
       </c>
       <c r="E772" t="s">
         <v>2383</v>
@@ -20738,13 +20738,13 @@
         <v>780</v>
       </c>
       <c r="B777" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="C777" t="s">
         <v>1941</v>
       </c>
       <c r="D777" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E777" t="s">
         <v>2383</v>
@@ -20755,13 +20755,13 @@
         <v>781</v>
       </c>
       <c r="B778" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="C778" t="s">
         <v>1942</v>
       </c>
       <c r="D778" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="E778" t="s">
         <v>2383</v>
@@ -20823,13 +20823,13 @@
         <v>785</v>
       </c>
       <c r="B782" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="C782" t="s">
         <v>1946</v>
       </c>
       <c r="D782" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="E782" t="s">
         <v>2383</v>
@@ -21044,13 +21044,13 @@
         <v>798</v>
       </c>
       <c r="B795" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="C795" t="s">
         <v>1959</v>
       </c>
       <c r="D795" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="E795" t="s">
         <v>2383</v>
@@ -21061,13 +21061,13 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C796" t="s">
         <v>1960</v>
       </c>
       <c r="D796" t="s">
-        <v>2343</v>
+        <v>2321</v>
       </c>
       <c r="E796" t="s">
         <v>2383</v>
@@ -21248,13 +21248,13 @@
         <v>810</v>
       </c>
       <c r="B807" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C807" t="s">
         <v>1971</v>
       </c>
       <c r="D807" t="s">
-        <v>2321</v>
+        <v>2356</v>
       </c>
       <c r="E807" t="s">
         <v>2383</v>
@@ -21407,10 +21407,10 @@
         <v>1980</v>
       </c>
       <c r="D816" t="s">
-        <v>2356</v>
+        <v>2314</v>
       </c>
       <c r="E816" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -21435,13 +21435,13 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C818" t="s">
         <v>1982</v>
       </c>
       <c r="D818" t="s">
-        <v>2314</v>
+        <v>2357</v>
       </c>
       <c r="E818" t="s">
         <v>2384</v>
@@ -21537,13 +21537,13 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C824" t="s">
         <v>1988</v>
       </c>
       <c r="D824" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E824" t="s">
         <v>2384</v>
@@ -21611,7 +21611,7 @@
         <v>1992</v>
       </c>
       <c r="D828" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="E828" t="s">
         <v>2384</v>
@@ -21696,7 +21696,7 @@
         <v>1997</v>
       </c>
       <c r="D833" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E833" t="s">
         <v>2384</v>
@@ -21741,13 +21741,13 @@
         <v>839</v>
       </c>
       <c r="B836" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C836" t="s">
         <v>2000</v>
       </c>
       <c r="D836" t="s">
-        <v>2360</v>
+        <v>2331</v>
       </c>
       <c r="E836" t="s">
         <v>2384</v>
@@ -21758,13 +21758,13 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C837" t="s">
         <v>2001</v>
       </c>
       <c r="D837" t="s">
-        <v>2331</v>
+        <v>1156</v>
       </c>
       <c r="E837" t="s">
         <v>2384</v>
@@ -21979,13 +21979,13 @@
         <v>853</v>
       </c>
       <c r="B850" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C850" t="s">
         <v>2014</v>
       </c>
       <c r="D850" t="s">
-        <v>1156</v>
+        <v>2361</v>
       </c>
       <c r="E850" t="s">
         <v>2384</v>
@@ -22064,13 +22064,13 @@
         <v>858</v>
       </c>
       <c r="B855" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C855" t="s">
         <v>2019</v>
       </c>
       <c r="D855" t="s">
-        <v>2361</v>
+        <v>2321</v>
       </c>
       <c r="E855" t="s">
         <v>2384</v>
@@ -22087,7 +22087,7 @@
         <v>2020</v>
       </c>
       <c r="D856" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E856" t="s">
         <v>2384</v>
@@ -22132,13 +22132,13 @@
         <v>862</v>
       </c>
       <c r="B859" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C859" t="s">
         <v>2023</v>
       </c>
       <c r="D859" t="s">
-        <v>2322</v>
+        <v>2362</v>
       </c>
       <c r="E859" t="s">
         <v>2384</v>
@@ -22172,10 +22172,10 @@
         <v>2025</v>
       </c>
       <c r="D861" t="s">
-        <v>2362</v>
+        <v>2314</v>
       </c>
       <c r="E861" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -22200,13 +22200,13 @@
         <v>866</v>
       </c>
       <c r="B863" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C863" t="s">
         <v>2027</v>
       </c>
       <c r="D863" t="s">
-        <v>2314</v>
+        <v>2331</v>
       </c>
       <c r="E863" t="s">
         <v>2385</v>
@@ -22217,13 +22217,13 @@
         <v>867</v>
       </c>
       <c r="B864" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="C864" t="s">
         <v>2028</v>
       </c>
       <c r="D864" t="s">
-        <v>2331</v>
+        <v>2363</v>
       </c>
       <c r="E864" t="s">
         <v>2385</v>
@@ -22370,13 +22370,13 @@
         <v>876</v>
       </c>
       <c r="B873" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C873" t="s">
         <v>2037</v>
       </c>
       <c r="D873" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E873" t="s">
         <v>2385</v>
@@ -22387,13 +22387,13 @@
         <v>877</v>
       </c>
       <c r="B874" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="C874" t="s">
         <v>2038</v>
       </c>
       <c r="D874" t="s">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="E874" t="s">
         <v>2385</v>
@@ -22410,7 +22410,7 @@
         <v>2039</v>
       </c>
       <c r="D875" t="s">
-        <v>2348</v>
+        <v>2365</v>
       </c>
       <c r="E875" t="s">
         <v>2385</v>
@@ -22444,7 +22444,7 @@
         <v>2041</v>
       </c>
       <c r="D877" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="E877" t="s">
         <v>2385</v>
@@ -22455,13 +22455,13 @@
         <v>881</v>
       </c>
       <c r="B878" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C878" t="s">
         <v>2042</v>
       </c>
       <c r="D878" t="s">
-        <v>2366</v>
+        <v>2336</v>
       </c>
       <c r="E878" t="s">
         <v>2385</v>
@@ -22849,7 +22849,7 @@
         <v>1164</v>
       </c>
       <c r="C901" t="s">
-        <v>2065</v>
+        <v>1534</v>
       </c>
       <c r="D901" t="s">
         <v>2336</v>
@@ -22866,7 +22866,7 @@
         <v>1164</v>
       </c>
       <c r="C902" t="s">
-        <v>1535</v>
+        <v>2065</v>
       </c>
       <c r="D902" t="s">
         <v>2336</v>
@@ -23101,16 +23101,16 @@
         <v>919</v>
       </c>
       <c r="B916" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="C916" t="s">
         <v>2079</v>
       </c>
       <c r="D916" t="s">
-        <v>2336</v>
+        <v>2314</v>
       </c>
       <c r="E916" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="917" spans="1:5">
@@ -23135,13 +23135,13 @@
         <v>921</v>
       </c>
       <c r="B918" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="C918" t="s">
         <v>2081</v>
       </c>
       <c r="D918" t="s">
-        <v>2314</v>
+        <v>1161</v>
       </c>
       <c r="E918" t="s">
         <v>2386</v>
@@ -23376,7 +23376,7 @@
         <v>1161</v>
       </c>
       <c r="C932" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="D932" t="s">
         <v>1161</v>
@@ -23393,7 +23393,7 @@
         <v>1161</v>
       </c>
       <c r="C933" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D933" t="s">
         <v>1161</v>
@@ -23427,7 +23427,7 @@
         <v>1161</v>
       </c>
       <c r="C935" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="D935" t="s">
         <v>1161</v>
@@ -23444,7 +23444,7 @@
         <v>1161</v>
       </c>
       <c r="C936" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="D936" t="s">
         <v>1161</v>
@@ -23509,13 +23509,13 @@
         <v>943</v>
       </c>
       <c r="B940" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C940" t="s">
         <v>2101</v>
       </c>
       <c r="D940" t="s">
-        <v>1161</v>
+        <v>2367</v>
       </c>
       <c r="E940" t="s">
         <v>2386</v>
@@ -23543,13 +23543,13 @@
         <v>945</v>
       </c>
       <c r="B942" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C942" t="s">
         <v>2103</v>
       </c>
       <c r="D942" t="s">
-        <v>2367</v>
+        <v>1168</v>
       </c>
       <c r="E942" t="s">
         <v>2386</v>
@@ -23815,13 +23815,13 @@
         <v>961</v>
       </c>
       <c r="B958" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C958" t="s">
         <v>2119</v>
       </c>
       <c r="D958" t="s">
-        <v>1168</v>
+        <v>2368</v>
       </c>
       <c r="E958" t="s">
         <v>2386</v>
@@ -24087,13 +24087,13 @@
         <v>977</v>
       </c>
       <c r="B974" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C974" t="s">
         <v>2135</v>
       </c>
       <c r="D974" t="s">
-        <v>2368</v>
+        <v>1156</v>
       </c>
       <c r="E974" t="s">
         <v>2386</v>
@@ -24294,7 +24294,7 @@
         <v>1156</v>
       </c>
       <c r="C986" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D986" t="s">
         <v>1156</v>
@@ -24311,7 +24311,7 @@
         <v>1156</v>
       </c>
       <c r="C987" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D987" t="s">
         <v>1156</v>
@@ -24566,7 +24566,7 @@
         <v>1164</v>
       </c>
       <c r="C1002" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D1002" t="s">
         <v>2370</v>

--- a/pali-class/vocab/vocab-class24.xlsx
+++ b/pali-class/vocab/vocab-class24.xlsx
@@ -871,51 +871,51 @@
     <t>kira 1</t>
   </si>
   <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>vata 1.2</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>ubhato</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
+  </si>
+  <si>
     <t>dukkhaṃ</t>
   </si>
   <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>vata 1.2</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>ubhato</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>atha 1</t>
   </si>
   <si>
@@ -2716,42 +2716,42 @@
     <t>senā</t>
   </si>
   <si>
+    <t>saṅkhā 2</t>
+  </si>
+  <si>
+    <t>pajā 2</t>
+  </si>
+  <si>
+    <t>vipassanā</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>nibbidā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
+    <t>vijjā 1</t>
+  </si>
+  <si>
     <t>aññā 1</t>
   </si>
   <si>
-    <t>saṅkhā 2</t>
-  </si>
-  <si>
-    <t>pajā 2</t>
-  </si>
-  <si>
-    <t>vipassanā</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>nibbidā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
-    <t>vijjā 1</t>
-  </si>
-  <si>
     <t>saññā 1</t>
   </si>
   <si>
@@ -3124,156 +3124,156 @@
     <t>mukha 3</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>mukha 2</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nagara 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>ghara 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>jīva 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>mukha 2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nagara 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>ghara 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>jīva 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -4372,51 +4372,51 @@
     <t>really; truly; definitely</t>
   </si>
   <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly; properly</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>certainly; surely; indeed</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
+  </si>
+  <si>
     <t>badly; with difficulty; uncomfortably</t>
   </si>
   <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly; properly</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>certainly; surely; indeed</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -6208,39 +6208,39 @@
     <t>army; military</t>
   </si>
   <si>
+    <t>definition; classification; concept; category</t>
+  </si>
+  <si>
+    <t>people; population; generation; mankind</t>
+  </si>
+  <si>
+    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
+  </si>
+  <si>
+    <t>old age; ageing</t>
+  </si>
+  <si>
+    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. song</t>
+  </si>
+  <si>
+    <t>speech; words; statement; talk</t>
+  </si>
+  <si>
+    <t>knowledge; wisdom; understanding</t>
+  </si>
+  <si>
     <t>gnosis; spiritual insight; enlightenment; final knowledge</t>
   </si>
   <si>
-    <t>definition; classification; concept; category</t>
-  </si>
-  <si>
-    <t>people; population; generation; mankind</t>
-  </si>
-  <si>
-    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
-  </si>
-  <si>
-    <t>old age; ageing</t>
-  </si>
-  <si>
-    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. song</t>
-  </si>
-  <si>
-    <t>speech; words; statement; talk</t>
-  </si>
-  <si>
-    <t>knowledge; wisdom; understanding</t>
-  </si>
-  <si>
     <t>perception; conception; recognition; third of the five aggregates</t>
   </si>
   <si>
@@ -6604,154 +6604,154 @@
     <t>face</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>town; city</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>house; home; household</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>town; city</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>house; home; household</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>
@@ -22970,7 +22970,7 @@
         <v>1167</v>
       </c>
       <c r="C906" t="s">
-        <v>2073</v>
+        <v>1650</v>
       </c>
       <c r="D906" t="s">
         <v>2344</v>
@@ -22987,7 +22987,7 @@
         <v>1167</v>
       </c>
       <c r="C907" t="s">
-        <v>1650</v>
+        <v>2073</v>
       </c>
       <c r="D907" t="s">
         <v>2344</v>
@@ -27084,7 +27084,7 @@
         <v>1172</v>
       </c>
       <c r="C1148" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D1148" t="s">
         <v>2385</v>

--- a/pali-class/vocab/vocab-class24.xlsx
+++ b/pali-class/vocab/vocab-class24.xlsx
@@ -622,12 +622,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -946,33 +946,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -2191,39 +2191,39 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>pāṇi 1</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>licchavi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>pāṇi 1</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>licchavi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 2</t>
   </si>
   <si>
@@ -3922,7 +3922,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -4126,12 +4126,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -4330,7 +4330,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -4447,33 +4447,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5683,39 +5683,39 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>hand; palm</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>name of a prominent group of Khattiyas based in Vesālī</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>hand; palm</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>name of a prominent group of Khattiyas based in Vesālī</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
@@ -5833,10 +5833,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -6187,7 +6187,7 @@
     <t>faith (in); belief (in); trust (in); lit. putting heart</t>
   </si>
   <si>
-    <t>magic; illusion; conjurer’s trick</t>
+    <t>magic; illusion; conjurer's trick</t>
   </si>
   <si>
     <t>arm; forearm</t>
@@ -6397,7 +6397,7 @@
     <t>psychic power; supernormal ability</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6883,10 +6883,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6916,7 +6916,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>
